--- a/4_testing/neighborcf/movielens/2020.12.03/analyze-movielens-1m-user.xlsx
+++ b/4_testing/neighborcf/movielens/2020.12.03/analyze-movielens-1m-user.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GoogleDrive\todeploy\working\projects\sim\working\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GoogleDrive\todo\working\projects\sim\4_testing\neighborcf\movielens\2020.12.03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D6B2D8-A959-4A86-801B-9E44BDF03F3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831BE677-960F-4C57-A51D-547B254AEA52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="4" xr2:uid="{8DB95D20-6883-4AA3-B7D2-5A0EAC39C354}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{8DB95D20-6883-4AA3-B7D2-5A0EAC39C354}"/>
   </bookViews>
   <sheets>
     <sheet name="MAE" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="27">
   <si>
     <t>Cosine</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>r=0.9, k=50</t>
+  </si>
+  <si>
+    <t>r=0.33, k=1, knn=100, fast</t>
   </si>
 </sst>
 </file>
@@ -203,7 +206,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>MAE!$H$1</c:f>
+              <c:f>MAE!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -259,36 +262,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>MAE!$H$2:$H$10</c:f>
+              <c:f>MAE!$I$2:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.753525</c:v>
+                  <c:v>0.80522000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77412499999999995</c:v>
+                  <c:v>0.80213999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.79505000000000003</c:v>
+                  <c:v>0.81908000000000014</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75162499999999999</c:v>
+                  <c:v>0.74568000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.75475000000000003</c:v>
+                  <c:v>0.74697999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.75270000000000004</c:v>
+                  <c:v>0.74675999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.75307499999999994</c:v>
+                  <c:v>0.78108</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.75157499999999999</c:v>
+                  <c:v>0.74538000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.75305</c:v>
+                  <c:v>0.74743999999999988</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -557,31 +560,31 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>6.2665630470532072E-2</c:v>
+                  <c:v>5.2438084199196919E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.3518163744803903E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.2532503220266206E-2</c:v>
+                  <c:v>5.2388335259329753E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5.0950744220415921E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4.2411669640046175E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.5842255576401921E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3.4921976376642815E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>5.0571881271786197E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>5.0949672512148741E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -851,19 +854,19 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.75475000000000003</c:v>
+                  <c:v>0.74697999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92615000000000003</c:v>
+                  <c:v>0.90883999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.62277500000000008</c:v>
+                  <c:v>0.61875999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.97829999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6.8799999999999972E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -942,19 +945,19 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.75157499999999999</c:v>
+                  <c:v>0.74538000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91842500000000005</c:v>
+                  <c:v>0.90405999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61155000000000004</c:v>
+                  <c:v>0.61294000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.97399999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>7.9300000000000037E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1033,19 +1036,19 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.75305</c:v>
+                  <c:v>0.74743999999999988</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91732499999999995</c:v>
+                  <c:v>0.90567999999999993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.58267499999999994</c:v>
+                  <c:v>0.59219999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.9738</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>7.9600000000000004E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2969,13 +2972,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>233362</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>4760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>4762</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3387,242 +3390,272 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F415299B-7611-4776-90FA-43332039FA40}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
+        <v>1.012</v>
+      </c>
+      <c r="C2" s="1">
         <v>0.74</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>0.73939999999999995</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1">
         <v>0.76749999999999996</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>0.76719999999999999</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1">
-        <f t="shared" ref="H2:H10" si="0">AVERAGE(B2:G2)</f>
-        <v>0.753525</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1">
+        <f t="shared" ref="I2:I10" si="0">AVERAGE(B2:H2)</f>
+        <v>0.80522000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
+        <v>0.91420000000000001</v>
+      </c>
+      <c r="C3" s="1">
         <v>0.74519999999999997</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>0.74470000000000003</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1">
         <v>0.80320000000000003</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>0.8034</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1">
-        <f t="shared" si="0"/>
-        <v>0.77412499999999995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.80213999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1">
+        <v>0.91520000000000001</v>
+      </c>
+      <c r="C4" s="1">
         <v>0.76100000000000001</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>0.76049999999999995</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
         <v>0.82940000000000003</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>0.82930000000000004</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.79505000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.81908000000000014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
+        <v>0.72189999999999999</v>
+      </c>
+      <c r="C5" s="1">
         <v>0.7339</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>0.73319999999999996</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
         <v>0.76980000000000004</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>0.76959999999999995</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.75162499999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.74568000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
+        <v>0.71589999999999998</v>
+      </c>
+      <c r="C6" s="1">
         <v>0.73050000000000004</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>0.7298</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
         <v>0.77939999999999998</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>0.77929999999999999</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.75475000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.74697999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="C7" s="1">
         <v>0.73109999999999997</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>0.73040000000000005</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
         <v>0.77470000000000006</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>0.77459999999999996</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.75270000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.74675999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1">
+        <v>0.8931</v>
+      </c>
+      <c r="C8" s="1">
         <v>0.73919999999999997</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>0.73850000000000005</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
         <v>0.76739999999999997</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>0.76719999999999999</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.75307499999999994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="1"/>
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.78108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1">
+        <v>0.72060000000000002</v>
+      </c>
+      <c r="C9" s="1">
         <v>0.73340000000000005</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>0.73270000000000002</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
         <v>0.7702</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>0.77</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1">
-        <f t="shared" si="0"/>
-        <v>0.75157499999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.74538000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="C10" s="1">
         <v>0.74080000000000001</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>0.74009999999999998</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
         <v>0.76580000000000004</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>0.76549999999999996</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.75305</v>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.74743999999999988</v>
       </c>
     </row>
   </sheetData>
@@ -3634,285 +3667,315 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D845ED3B-1C35-4974-BD89-89002EC8961B}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
+        <v>1.7496</v>
+      </c>
+      <c r="C2" s="1">
         <v>0.88480000000000003</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>0.88239999999999996</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1">
         <v>0.96440000000000003</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>0.96419999999999995</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1">
-        <f t="shared" ref="H2:H10" si="0">AVERAGE(B2:G2)</f>
-        <v>0.92394999999999994</v>
-      </c>
+      <c r="H2" s="1"/>
       <c r="I2" s="1">
-        <f>SQRT(H2)</f>
-        <v>0.96122317907965571</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I2:I10" si="0">AVERAGE(B2:H2)</f>
+        <v>1.08908</v>
+      </c>
+      <c r="J2" s="1">
+        <f>SQRT(I2)</f>
+        <v>1.0435899577899359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
+        <v>1.3585</v>
+      </c>
+      <c r="C3" s="1">
         <v>0.8891</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>0.8871</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1">
         <v>1.0468</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>1.0474000000000001</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1">
-        <f t="shared" si="0"/>
-        <v>0.96760000000000002</v>
-      </c>
+      <c r="H3" s="1"/>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I10" si="1">SQRT(H3)</f>
-        <v>0.98366661018863499</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1.0457800000000002</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J10" si="1">SQRT(I3)</f>
+        <v>1.0226338543193259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1">
+        <v>1.3758999999999999</v>
+      </c>
+      <c r="C4" s="1">
         <v>0.91910000000000003</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>0.91679999999999995</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
         <v>1.095</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>1.0941000000000001</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0062500000000001</v>
-      </c>
+      <c r="H4" s="1"/>
       <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0801799999999999</v>
+      </c>
+      <c r="J4" s="1">
         <f t="shared" si="1"/>
-        <v>1.0031201323869441</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0393170834735663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
+        <v>0.85119999999999996</v>
+      </c>
+      <c r="C5" s="1">
         <v>0.87160000000000004</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>0.86919999999999997</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
         <v>0.96740000000000004</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>0.96709999999999996</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.918825</v>
-      </c>
+      <c r="H5" s="1"/>
       <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.90529999999999988</v>
+      </c>
+      <c r="J5" s="1">
         <f t="shared" si="1"/>
-        <v>0.95855359787546568</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.95147254295644279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
+        <v>0.83960000000000001</v>
+      </c>
+      <c r="C6" s="1">
         <v>0.86409999999999998</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>0.86170000000000002</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
         <v>0.98950000000000005</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>0.98929999999999996</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.92615000000000003</v>
-      </c>
+      <c r="H6" s="1"/>
       <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.90883999999999998</v>
+      </c>
+      <c r="J6" s="1">
         <f t="shared" si="1"/>
-        <v>0.96236687391036069</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.95333100232815249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1">
+        <v>0.874</v>
+      </c>
+      <c r="C7" s="1">
         <v>0.87290000000000001</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>0.87029999999999996</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
         <v>0.9879</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>0.98799999999999999</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.92977499999999991</v>
-      </c>
+      <c r="H7" s="1"/>
       <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.91861999999999999</v>
+      </c>
+      <c r="J7" s="1">
         <f t="shared" si="1"/>
-        <v>0.96424841197691369</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.95844665996600975</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1">
+        <v>1.2992999999999999</v>
+      </c>
+      <c r="C8" s="1">
         <v>0.88270000000000004</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>0.88029999999999997</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
         <v>0.96409999999999996</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>0.96389999999999998</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.92274999999999996</v>
-      </c>
+      <c r="H8" s="1"/>
       <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99805999999999995</v>
+      </c>
+      <c r="J8" s="1">
         <f t="shared" si="1"/>
-        <v>0.96059877160029716</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.99902952909310938</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1">
+        <v>0.84660000000000002</v>
+      </c>
+      <c r="C9" s="1">
         <v>0.87019999999999997</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>0.86780000000000002</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
         <v>0.96799999999999997</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>0.9677</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1">
-        <f t="shared" si="0"/>
-        <v>0.91842500000000005</v>
-      </c>
+      <c r="H9" s="1"/>
       <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.90405999999999997</v>
+      </c>
+      <c r="J9" s="1">
         <f t="shared" si="1"/>
-        <v>0.95834492746609767</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.95082069813398573</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1">
+        <v>0.85909999999999997</v>
+      </c>
+      <c r="C10" s="1">
         <v>0.88519999999999999</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>0.88270000000000004</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
         <v>0.95109999999999995</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>0.95030000000000003</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.91732499999999995</v>
-      </c>
+      <c r="H10" s="1"/>
       <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.90567999999999993</v>
+      </c>
+      <c r="J10" s="1">
         <f t="shared" si="1"/>
-        <v>0.95777084942067425</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I11" s="1"/>
+        <v>0.95167221247654377</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3922,242 +3985,272 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10484FF-0F81-4946-89C5-3E5AAAADF83E}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="C2" s="1">
         <v>0.42759999999999998</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>0.42859999999999998</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1">
         <v>0.35809999999999997</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>0.35780000000000001</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1">
-        <f t="shared" ref="H2:H10" si="0">AVERAGE(B2:G2)</f>
-        <v>0.39302499999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1">
+        <f t="shared" ref="I2:I10" si="0">AVERAGE(B2:H2)</f>
+        <v>0.31626000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
+        <v>0.1915</v>
+      </c>
+      <c r="C3" s="1">
         <v>0.4138</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>0.41439999999999999</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1">
         <v>0.25690000000000002</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>0.25629999999999997</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1">
-        <f t="shared" si="0"/>
-        <v>0.33535000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.30657999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1">
+        <v>0.1895</v>
+      </c>
+      <c r="C4" s="1">
         <v>0.33100000000000002</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>0.33310000000000001</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
         <v>0.1416</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>0.1419</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.23690000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.22741999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
+        <v>0.37580000000000002</v>
+      </c>
+      <c r="C5" s="1">
         <v>0.43130000000000002</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>0.43230000000000002</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
         <v>0.34470000000000001</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>0.34399999999999997</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.38807499999999995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.38562000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
+        <v>0.39729999999999999</v>
+      </c>
+      <c r="C6" s="1">
         <v>0.43020000000000003</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>0.43149999999999999</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
         <v>0.32390000000000002</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>0.32329999999999998</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.37722499999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.38123999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1">
+        <v>0.43640000000000001</v>
+      </c>
+      <c r="C7" s="1">
         <v>0.43369999999999997</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>0.43509999999999999</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
         <v>0.33960000000000001</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>0.3387</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.38677500000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.3967</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1">
+        <v>0.20480000000000001</v>
+      </c>
+      <c r="C8" s="1">
         <v>0.4299</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>0.43099999999999999</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
         <v>0.35830000000000001</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>0.35780000000000001</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.39424999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="1"/>
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.35636000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1">
+        <v>0.38150000000000001</v>
+      </c>
+      <c r="C9" s="1">
         <v>0.43259999999999998</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>0.43369999999999997</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
         <v>0.34410000000000002</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>0.34339999999999998</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1">
-        <f t="shared" si="0"/>
-        <v>0.38844999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.38706000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1">
+        <v>0.36969999999999997</v>
+      </c>
+      <c r="C10" s="1">
         <v>0.42799999999999999</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>0.42880000000000001</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
         <v>0.40610000000000002</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>0.40639999999999998</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.41732500000000006</v>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.40780000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -4168,242 +4261,272 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E2A596-55B6-400A-BEAB-8F453735749D}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
+        <v>5.5968</v>
+      </c>
+      <c r="C2" s="1">
         <v>0.39739999999999998</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>0.60109999999999997</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1">
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>6.1600000000000002E-2</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1">
-        <f t="shared" ref="H2:H10" si="0">AVERAGE(B2:G2)</f>
-        <v>0.28015000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1">
+        <f t="shared" ref="I2:I10" si="0">AVERAGE(B2:H2)</f>
+        <v>1.34348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
+        <v>0.10680000000000001</v>
+      </c>
+      <c r="C3" s="1">
         <v>0.38250000000000001</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>0.60250000000000004</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>6.1400000000000003E-2</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1">
-        <f t="shared" si="0"/>
-        <v>0.27684999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.24284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1">
+        <v>0.1179</v>
+      </c>
+      <c r="C4" s="1">
         <v>0.41110000000000002</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>0.62480000000000002</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
         <v>6.6699999999999995E-2</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>6.7299999999999999E-2</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.29247499999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25755999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
+        <v>0.33310000000000001</v>
+      </c>
+      <c r="C5" s="1">
         <v>0.40439999999999998</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>0.67720000000000002</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
         <v>7.7899999999999997E-2</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>7.85E-2</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.3095</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.31422000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
+        <v>0.46579999999999999</v>
+      </c>
+      <c r="C6" s="1">
         <v>0.43669999999999998</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>0.72509999999999997</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
         <v>8.8700000000000001E-2</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>8.9200000000000002E-2</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.33492499999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.36109999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1">
+        <v>0.30020000000000002</v>
+      </c>
+      <c r="C7" s="1">
         <v>0.37040000000000001</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>0.63009999999999999</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
         <v>6.6400000000000001E-2</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>6.59E-2</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.28320000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28660000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="C8" s="1">
         <v>0.41260000000000002</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>0.62570000000000003</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
         <v>6.6199999999999995E-2</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.29262500000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="1"/>
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25610000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1">
+        <v>0.33139999999999997</v>
+      </c>
+      <c r="C9" s="1">
         <v>0.42230000000000001</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>0.68240000000000001</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1">
-        <v>7.8100000000000003E-2</v>
-      </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="1">
         <v>7.8100000000000003E-2</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1">
-        <f t="shared" si="0"/>
-        <v>0.31522500000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="1">
+        <v>7.8100000000000003E-2</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.31846000000000008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1">
+        <v>0.6371</v>
+      </c>
+      <c r="C10" s="1">
         <v>0.70940000000000003</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>0.997</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
         <v>0.26150000000000001</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>0.26279999999999998</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.55767500000000003</v>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.57355999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -4414,176 +4537,206 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD571D8-A6EF-4FD2-AC2E-36D5484BA4FE}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="C2" s="1">
         <v>2.4500000000000001E-2</v>
       </c>
-      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="1">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1">
         <v>4.0399999999999998E-2</v>
       </c>
-      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1">
-        <f t="shared" ref="H2:H10" si="0">AVERAGE(B2:G2)</f>
-        <v>3.245E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1">
+        <f t="shared" ref="I2:I10" si="0">AVERAGE(B2:H2)</f>
+        <v>2.7133333333333332E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1">
+        <v>1.7299999999999999E-2</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1">
+        <v>1.66E-2</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
         <v>3.78E-2</v>
       </c>
-      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1">
-        <f t="shared" si="0"/>
-        <v>3.78E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1">
+        <v>2.6200000000000001E-2</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1">
+        <v>2.1700000000000001E-2</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1">
+        <v>1.3100000000000001E-2</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="1"/>
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1">
+        <v>2.6200000000000001E-2</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6200000000000001E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4594,176 +4747,206 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E037ECD2-FD94-4DA2-BE1D-F9E27FEA143C}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
+        <v>0.5141</v>
+      </c>
+      <c r="C2" s="1">
         <v>0.92969999999999997</v>
       </c>
-      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="1">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1">
         <v>0.89049999999999996</v>
       </c>
-      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1">
-        <f t="shared" ref="H2:H10" si="0">AVERAGE(B2:G2)</f>
-        <v>0.91009999999999991</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1">
+        <f t="shared" ref="I2:I10" si="0">AVERAGE(B2:H2)</f>
+        <v>0.7780999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1">
+        <v>0.53600000000000003</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.53600000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1">
+        <v>0.52290000000000003</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
         <v>0.89380000000000004</v>
       </c>
-      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.89380000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.70835000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1">
+        <v>0.92110000000000003</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.92110000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1">
+        <v>0.93120000000000003</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.93120000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1">
+        <v>0.94630000000000003</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.94630000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1">
+        <v>0.58309999999999995</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="1"/>
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.58309999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1">
+        <v>0.92069999999999996</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.92069999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1">
+        <v>0.9204</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9204</v>
       </c>
     </row>
   </sheetData>
@@ -4777,7 +4960,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4798,33 +4981,33 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <f>Precision!H2</f>
-        <v>3.245E-2</v>
+        <f>Precision!I2</f>
+        <v>2.7133333333333332E-2</v>
       </c>
       <c r="C2" s="1">
-        <f>Recall!H2</f>
-        <v>0.91009999999999991</v>
+        <f>Recall!I2</f>
+        <v>0.7780999999999999</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:D10" si="0">2*(B2*C2)/(B2+C2)</f>
-        <v>6.2665630470532072E-2</v>
+        <v>5.2438084199196919E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="e">
-        <f>Precision!H3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C3" s="1" t="e">
-        <f>Recall!H3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D3" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3" s="1">
+        <f>Precision!I3</f>
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="C3" s="1">
+        <f>Recall!I3</f>
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" si="0"/>
+        <v>3.3518163744803903E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4832,118 +5015,118 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <f>Precision!H4</f>
-        <v>3.78E-2</v>
+        <f>Precision!I4</f>
+        <v>2.7200000000000002E-2</v>
       </c>
       <c r="C4" s="1">
-        <f>Recall!H4</f>
-        <v>0.89380000000000004</v>
+        <f>Recall!I4</f>
+        <v>0.70835000000000004</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>7.2532503220266206E-2</v>
+        <v>5.2388335259329753E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="e">
-        <f>Precision!H5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C5" s="1" t="e">
-        <f>Recall!H5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D5" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5" s="1">
+        <f>Precision!I5</f>
+        <v>2.6200000000000001E-2</v>
+      </c>
+      <c r="C5" s="1">
+        <f>Recall!I5</f>
+        <v>0.92110000000000003</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>5.0950744220415921E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="e">
-        <f>Precision!H6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C6" s="1" t="e">
-        <f>Recall!H6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D6" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6" s="1">
+        <f>Precision!I6</f>
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <f>Recall!I6</f>
+        <v>0.93120000000000003</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>4.2411669640046175E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="e">
-        <f>Precision!H7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C7" s="1" t="e">
-        <f>Recall!H7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D7" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7" s="1">
+        <f>Precision!I7</f>
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <f>Recall!I7</f>
+        <v>0.94630000000000003</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>2.5842255576401921E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="e">
-        <f>Precision!H8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C8" s="1" t="e">
-        <f>Recall!H8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D8" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8" s="1">
+        <f>Precision!I8</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <f>Recall!I8</f>
+        <v>0.58309999999999995</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>3.4921976376642815E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="e">
-        <f>Precision!H9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C9" s="1" t="e">
-        <f>Recall!H9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D9" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9" s="1">
+        <f>Precision!I9</f>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="C9" s="1">
+        <f>Recall!I9</f>
+        <v>0.92069999999999996</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>5.0571881271786197E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="e">
-        <f>Precision!H10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C10" s="1" t="e">
-        <f>Recall!H10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D10" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10" s="1">
+        <f>Precision!I10</f>
+        <v>2.6200000000000001E-2</v>
+      </c>
+      <c r="C10" s="1">
+        <f>Recall!I10</f>
+        <v>0.9204</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>5.0949672512148741E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4985,24 +5168,24 @@
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <f>MAE!H6</f>
-        <v>0.75475000000000003</v>
+        <f>MAE!I6</f>
+        <v>0.74697999999999998</v>
       </c>
       <c r="C2" s="1">
-        <f>MSE!H6</f>
-        <v>0.92615000000000003</v>
+        <f>MSE!I6</f>
+        <v>0.90883999999999998</v>
       </c>
       <c r="D2" s="1">
-        <f>1-('R'!H6)</f>
-        <v>0.62277500000000008</v>
-      </c>
-      <c r="E2" s="1" t="e">
-        <f>1-(Precision!H6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F2" s="1" t="e">
-        <f>1-(Recall!H6)</f>
-        <v>#DIV/0!</v>
+        <f>1-('R'!I6)</f>
+        <v>0.61875999999999998</v>
+      </c>
+      <c r="E2" s="1">
+        <f>1-(Precision!I6)</f>
+        <v>0.97829999999999995</v>
+      </c>
+      <c r="F2" s="1">
+        <f>1-(Recall!I6)</f>
+        <v>6.8799999999999972E-2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5010,24 +5193,24 @@
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <f>MAE!H9</f>
-        <v>0.75157499999999999</v>
+        <f>MAE!I9</f>
+        <v>0.74538000000000004</v>
       </c>
       <c r="C3" s="1">
-        <f>MSE!H9</f>
-        <v>0.91842500000000005</v>
+        <f>MSE!I9</f>
+        <v>0.90405999999999997</v>
       </c>
       <c r="D3" s="1">
-        <f>1-('R'!H9)</f>
-        <v>0.61155000000000004</v>
-      </c>
-      <c r="E3" s="1" t="e">
-        <f>1-(Precision!H9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F3" s="1" t="e">
-        <f>1-(Recall!H9)</f>
-        <v>#DIV/0!</v>
+        <f>1-('R'!I9)</f>
+        <v>0.61294000000000004</v>
+      </c>
+      <c r="E3" s="1">
+        <f>1-(Precision!I9)</f>
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="F3" s="1">
+        <f>1-(Recall!I9)</f>
+        <v>7.9300000000000037E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5035,24 +5218,24 @@
         <v>10</v>
       </c>
       <c r="B4" s="1">
-        <f>MAE!H10</f>
-        <v>0.75305</v>
+        <f>MAE!I10</f>
+        <v>0.74743999999999988</v>
       </c>
       <c r="C4" s="1">
-        <f>MSE!H10</f>
-        <v>0.91732499999999995</v>
+        <f>MSE!I10</f>
+        <v>0.90567999999999993</v>
       </c>
       <c r="D4" s="1">
-        <f>1-('R'!H10)</f>
-        <v>0.58267499999999994</v>
-      </c>
-      <c r="E4" s="1" t="e">
-        <f>1-(Precision!H10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F4" s="1" t="e">
-        <f>1-(Recall!H10)</f>
-        <v>#DIV/0!</v>
+        <f>1-('R'!I10)</f>
+        <v>0.59219999999999995</v>
+      </c>
+      <c r="E4" s="1">
+        <f>1-(Precision!I10)</f>
+        <v>0.9738</v>
+      </c>
+      <c r="F4" s="1">
+        <f>1-(Recall!I10)</f>
+        <v>7.9600000000000004E-2</v>
       </c>
     </row>
   </sheetData>
